--- a/project/yilaitongtest/测试报价.xlsx
+++ b/project/yilaitongtest/测试报价.xlsx
@@ -19,9 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="344">
-  <si>
-    <t>型号</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="350">
+  <si>
+    <t>苹果型号</t>
   </si>
   <si>
     <t>价格</t>
@@ -234,7 +234,19 @@
     <t>7 4.7寸 演示 特别红256G</t>
   </si>
   <si>
-    <t>2018/08/01</t>
+    <t>华为型号</t>
+  </si>
+  <si>
+    <t>P10 全网金4G+64G</t>
+  </si>
+  <si>
+    <t>P10 全网蓝4G+64G</t>
+  </si>
+  <si>
+    <t>P10 Plus 全网金6G+64G</t>
+  </si>
+  <si>
+    <t>P10 Plus 全网黑6G+64G</t>
   </si>
   <si>
     <t>畅玩6 全网金16G</t>
@@ -333,6 +345,9 @@
     <t>荣耀V10 全网尊享魅丽红6G+128G</t>
   </si>
   <si>
+    <t>荣耀V10 全网尊享极光蓝6G+128G</t>
+  </si>
+  <si>
     <t>荣耀V10 全网尊享沙滩金6G+128G</t>
   </si>
   <si>
@@ -387,6 +402,9 @@
     <t>荣耀9青春版 全网标准珠光白3G+32G</t>
   </si>
   <si>
+    <t>荣耀9青春版 全网尊享珠光白4G+64G</t>
+  </si>
+  <si>
     <t>荣耀9青春版 全网尊享幻夜黑4G+64G</t>
   </si>
   <si>
@@ -585,9 +603,6 @@
     <t>荣耀10 全网幻夜黑6G+64G</t>
   </si>
   <si>
-    <t>荣耀10 全网幻影紫6G+64G</t>
-  </si>
-  <si>
     <t>畅享8 Plus 全网黑4G+128G</t>
   </si>
   <si>
@@ -624,9 +639,6 @@
     <t>荣耀10 移动幻影蓝6G+128G</t>
   </si>
   <si>
-    <t>畅享8 全网高配粉4G+64G</t>
-  </si>
-  <si>
     <t>畅玩7 全网蓝16G</t>
   </si>
   <si>
@@ -696,6 +708,9 @@
     <t>nova 3 6+128G浅艾蓝</t>
   </si>
   <si>
+    <t>小米型号</t>
+  </si>
+  <si>
     <t>小米Max2 4+64G金色</t>
   </si>
   <si>
@@ -916,6 +931,9 @@
   </si>
   <si>
     <t>红米S2 4+64G玫瑰金</t>
+  </si>
+  <si>
+    <t>魅族型号</t>
   </si>
   <si>
     <t>PRO 6s 4GB+64GB玫瑰金</t>
@@ -1418,7 +1436,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1967,6 +1985,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
@@ -1977,7 +1998,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C154"/>
+  <dimension ref="A1:C158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1990,13 +2011,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>71</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2004,7 +2025,7 @@
         <v>72</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>480</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2012,7 +2033,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>495</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2020,7 +2041,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1140</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2028,7 +2049,7 @@
         <v>75</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1170</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2036,7 +2057,7 @@
         <v>76</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1120</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2044,7 +2065,7 @@
         <v>77</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1125</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2052,7 +2073,7 @@
         <v>78</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1350</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2060,7 +2081,7 @@
         <v>79</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2550</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2068,7 +2089,7 @@
         <v>80</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>3100</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2076,7 +2097,7 @@
         <v>81</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>840</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2084,7 +2105,7 @@
         <v>82</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2570</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2092,7 +2113,7 @@
         <v>83</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>3130</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2100,7 +2121,7 @@
         <v>84</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1270</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2108,7 +2129,7 @@
         <v>85</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1120</v>
+        <v>850</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2116,7 +2137,7 @@
         <v>86</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1270</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2124,7 +2145,7 @@
         <v>87</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>3100</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2132,7 +2153,7 @@
         <v>88</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2550</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2140,7 +2161,7 @@
         <v>89</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>840</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2148,7 +2169,7 @@
         <v>90</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>843</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2156,7 +2177,7 @@
         <v>91</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>3090</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2164,7 +2185,7 @@
         <v>92</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>3710</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2172,7 +2193,7 @@
         <v>93</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>3550</v>
+        <v>850</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2180,7 +2201,7 @@
         <v>94</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>3600</v>
+        <v>855</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2188,7 +2209,7 @@
         <v>95</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>3050</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2196,7 +2217,7 @@
         <v>96</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>3040</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2204,7 +2225,7 @@
         <v>97</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1138</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2212,7 +2233,7 @@
         <v>98</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>3560</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2220,7 +2241,7 @@
         <v>99</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1988</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2228,7 +2249,7 @@
         <v>100</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2010</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2236,7 +2257,7 @@
         <v>101</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1980</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2244,7 +2265,7 @@
         <v>102</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>2270</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2252,7 +2273,7 @@
         <v>103</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>2270</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2260,7 +2281,7 @@
         <v>104</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>2325</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2268,7 +2289,7 @@
         <v>105</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1660</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2276,7 +2297,7 @@
         <v>106</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1740</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2284,7 +2305,7 @@
         <v>107</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1735</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2292,7 +2313,7 @@
         <v>108</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>840</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2300,7 +2321,7 @@
         <v>109</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1690</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2308,7 +2329,7 @@
         <v>110</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1390</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2316,7 +2337,7 @@
         <v>111</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1128</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2324,7 +2345,7 @@
         <v>112</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>2020</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2332,7 +2353,7 @@
         <v>113</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>823</v>
+        <v>850</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2340,7 +2361,7 @@
         <v>114</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>925</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2348,7 +2369,7 @@
         <v>115</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1745</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2356,7 +2377,7 @@
         <v>116</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>875</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2364,7 +2385,7 @@
         <v>117</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1198</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2372,7 +2393,7 @@
         <v>118</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1225</v>
+        <v>828</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2380,7 +2401,7 @@
         <v>119</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>790</v>
+        <v>922</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2388,7 +2409,7 @@
         <v>120</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>815</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2396,7 +2417,7 @@
         <v>121</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>795</v>
+        <v>875</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2404,7 +2425,7 @@
         <v>122</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1220</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2412,7 +2433,7 @@
         <v>123</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>925</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2420,7 +2441,7 @@
         <v>124</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1630</v>
+        <v>798</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2428,7 +2449,7 @@
         <v>125</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>2110</v>
+        <v>819</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2436,7 +2457,7 @@
         <v>126</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>2060</v>
+        <v>800</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2444,7 +2465,7 @@
         <v>127</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1990</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2452,7 +2473,7 @@
         <v>128</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>2050</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2460,7 +2481,7 @@
         <v>129</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>2250</v>
+        <v>920</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2468,7 +2489,7 @@
         <v>130</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>715</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2476,7 +2497,7 @@
         <v>131</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>708</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2484,7 +2505,7 @@
         <v>132</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>725</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2492,7 +2513,7 @@
         <v>133</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>850</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2500,7 +2521,7 @@
         <v>134</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>850</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2508,7 +2529,7 @@
         <v>135</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>850</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2516,7 +2537,7 @@
         <v>136</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1575</v>
+        <v>720</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2524,7 +2545,7 @@
         <v>137</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1560</v>
+        <v>720</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2532,7 +2553,7 @@
         <v>138</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1670</v>
+        <v>735</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2540,7 +2561,7 @@
         <v>139</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>980</v>
+        <v>850</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2548,7 +2569,7 @@
         <v>140</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>980</v>
+        <v>850</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2564,7 +2585,7 @@
         <v>142</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>875</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2572,7 +2593,7 @@
         <v>143</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1680</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2580,7 +2601,7 @@
         <v>144</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>985</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2588,7 +2609,7 @@
         <v>145</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1235</v>
+        <v>982</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2596,7 +2617,7 @@
         <v>146</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1565</v>
+        <v>980</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2604,7 +2625,7 @@
         <v>147</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1235</v>
+        <v>850</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2612,7 +2633,7 @@
         <v>148</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>690</v>
+        <v>870</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2620,7 +2641,7 @@
         <v>149</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>698</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2628,7 +2649,7 @@
         <v>150</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1725</v>
+        <v>983</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2644,7 +2665,7 @@
         <v>152</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>590</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2652,7 +2673,7 @@
         <v>153</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>618</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2660,7 +2681,7 @@
         <v>154</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>608</v>
+        <v>695</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2668,7 +2689,7 @@
         <v>155</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>733</v>
+        <v>700</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2676,7 +2697,7 @@
         <v>156</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>880</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2684,7 +2705,7 @@
         <v>157</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>3130</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2692,7 +2713,7 @@
         <v>158</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>3180</v>
+        <v>600</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2700,7 +2721,7 @@
         <v>159</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>3120</v>
+        <v>620</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2708,7 +2729,7 @@
         <v>160</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>3170</v>
+        <v>612</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2716,7 +2737,7 @@
         <v>161</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>3680</v>
+        <v>735</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2724,7 +2745,7 @@
         <v>162</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>3680</v>
+        <v>873</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2732,7 +2753,7 @@
         <v>163</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>3520</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2740,7 +2761,7 @@
         <v>164</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>4130</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2748,7 +2769,7 @@
         <v>165</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>4180</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2756,7 +2777,7 @@
         <v>166</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>4700</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2764,7 +2785,7 @@
         <v>167</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>4630</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2772,7 +2793,7 @@
         <v>168</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>4730</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2780,7 +2801,7 @@
         <v>169</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>3520</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2788,7 +2809,7 @@
         <v>170</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>4150</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2796,7 +2817,7 @@
         <v>171</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>4230</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2804,7 +2825,7 @@
         <v>172</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>4770</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2812,7 +2833,7 @@
         <v>173</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>5650</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2820,7 +2841,7 @@
         <v>174</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>5500</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2828,7 +2849,7 @@
         <v>175</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>727</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2836,7 +2857,7 @@
         <v>176</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>1040</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2844,7 +2865,7 @@
         <v>177</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>1050</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2852,7 +2873,7 @@
         <v>178</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>1050</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2860,7 +2881,7 @@
         <v>179</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>758</v>
+        <v>5650</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2868,7 +2889,7 @@
         <v>180</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>758</v>
+        <v>5530</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2876,7 +2897,7 @@
         <v>181</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>760</v>
+        <v>735</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2884,7 +2905,7 @@
         <v>182</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>985</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2892,7 +2913,7 @@
         <v>183</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>2480</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2900,7 +2921,7 @@
         <v>184</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>2450</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2908,7 +2929,7 @@
         <v>185</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>2420</v>
+        <v>763</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2916,7 +2937,7 @@
         <v>186</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>2420</v>
+        <v>763</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2924,7 +2945,7 @@
         <v>187</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>2330</v>
+        <v>763</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2932,7 +2953,7 @@
         <v>188</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>2330</v>
+        <v>983</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2940,7 +2961,7 @@
         <v>189</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>1380</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2948,7 +2969,7 @@
         <v>190</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>1380</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2956,7 +2977,7 @@
         <v>191</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>2330</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2964,7 +2985,7 @@
         <v>192</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>1385</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2972,7 +2993,7 @@
         <v>193</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>1670</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2980,7 +3001,7 @@
         <v>194</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>3740</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2988,7 +3009,7 @@
         <v>195</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>1260</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2996,7 +3017,7 @@
         <v>196</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>3270</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3004,7 +3025,7 @@
         <v>197</v>
       </c>
       <c r="B127" s="2" t="n">
-        <v>508</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3012,7 +3033,7 @@
         <v>198</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>502</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3020,7 +3041,7 @@
         <v>199</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>2430</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3028,7 +3049,7 @@
         <v>200</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>2430</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3036,7 +3057,7 @@
         <v>201</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>1065</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3044,7 +3065,7 @@
         <v>202</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>502</v>
+        <v>509</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3052,7 +3073,7 @@
         <v>203</v>
       </c>
       <c r="B133" s="2" t="n">
-        <v>1570</v>
+        <v>502</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3060,7 +3081,7 @@
         <v>204</v>
       </c>
       <c r="B134" s="2" t="n">
-        <v>1345</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3068,7 +3089,7 @@
         <v>205</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>1350</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3076,7 +3097,7 @@
         <v>206</v>
       </c>
       <c r="B136" s="2" t="n">
-        <v>1980</v>
+        <v>504</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3084,7 +3105,7 @@
         <v>207</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>1505</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3092,7 +3113,7 @@
         <v>208</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>1495</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3100,7 +3121,7 @@
         <v>209</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>1775</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -3108,7 +3129,7 @@
         <v>210</v>
       </c>
       <c r="B140" s="2" t="n">
-        <v>1775</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3116,7 +3137,7 @@
         <v>211</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>2010</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3124,7 +3145,7 @@
         <v>212</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>1360</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -3132,7 +3153,7 @@
         <v>213</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>1775</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3140,7 +3161,7 @@
         <v>214</v>
       </c>
       <c r="B144" s="2" t="n">
-        <v>1325</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3148,7 +3169,7 @@
         <v>215</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>2020</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3156,7 +3177,7 @@
         <v>216</v>
       </c>
       <c r="B146" s="2" t="n">
-        <v>630</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3164,7 +3185,7 @@
         <v>217</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>630</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3172,7 +3193,7 @@
         <v>218</v>
       </c>
       <c r="B148" s="2" t="n">
-        <v>1500</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3180,7 +3201,7 @@
         <v>219</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>1500</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3188,7 +3209,7 @@
         <v>220</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3196,7 +3217,7 @@
         <v>221</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>2690</v>
+        <v>630</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3204,7 +3225,7 @@
         <v>222</v>
       </c>
       <c r="B152" s="2" t="n">
-        <v>2950</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3212,7 +3233,7 @@
         <v>223</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>2800</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3220,10 +3241,45 @@
         <v>224</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>2770</v>
+        <v>633</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>2780</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
@@ -3247,18 +3303,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>1110</v>
@@ -3266,7 +3322,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>520</v>
@@ -3274,7 +3330,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>518</v>
@@ -3282,7 +3338,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>520</v>
@@ -3290,7 +3346,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>503</v>
@@ -3298,7 +3354,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>708</v>
@@ -3306,7 +3362,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>765</v>
@@ -3314,7 +3370,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>765</v>
@@ -3322,7 +3378,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>973</v>
@@ -3330,7 +3386,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>770</v>
@@ -3338,7 +3394,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>963</v>
@@ -3346,7 +3402,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>960</v>
@@ -3354,7 +3410,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>640</v>
@@ -3362,7 +3418,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>960</v>
@@ -3370,7 +3426,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>1128</v>
@@ -3378,7 +3434,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>1125</v>
@@ -3386,7 +3442,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>1120</v>
@@ -3394,7 +3450,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>1335</v>
@@ -3402,7 +3458,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>1390</v>
@@ -3410,7 +3466,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>915</v>
@@ -3418,7 +3474,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>910</v>
@@ -3426,7 +3482,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>915</v>
@@ -3434,7 +3490,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>915</v>
@@ -3442,7 +3498,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>2820</v>
@@ -3450,7 +3506,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>2780</v>
@@ -3458,7 +3514,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>3150</v>
@@ -3466,7 +3522,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>2950</v>
@@ -3474,7 +3530,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>503</v>
@@ -3482,7 +3538,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>1350</v>
@@ -3490,7 +3546,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>1440</v>
@@ -3498,7 +3554,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>1450</v>
@@ -3506,7 +3562,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>1680</v>
@@ -3514,7 +3570,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B34" s="2" t="n">
         <v>1455</v>
@@ -3522,7 +3578,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>1120</v>
@@ -3530,7 +3586,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>1675</v>
@@ -3538,7 +3594,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>598</v>
@@ -3546,7 +3602,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>605</v>
@@ -3554,7 +3610,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>1680</v>
@@ -3562,7 +3618,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>1350</v>
@@ -3570,7 +3626,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>2590</v>
@@ -3578,7 +3634,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>2560</v>
@@ -3586,7 +3642,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>2560</v>
@@ -3594,7 +3650,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>2710</v>
@@ -3602,7 +3658,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>2700</v>
@@ -3610,7 +3666,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B46" s="2" t="n">
         <v>1750</v>
@@ -3618,7 +3674,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>1700</v>
@@ -3626,7 +3682,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B48" s="2" t="n">
         <v>1955</v>
@@ -3634,7 +3690,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B49" s="2" t="n">
         <v>1880</v>
@@ -3642,7 +3698,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>2700</v>
@@ -3650,7 +3706,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B51" s="2" t="n">
         <v>1360</v>
@@ -3658,7 +3714,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>3080</v>
@@ -3666,7 +3722,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B53" s="2" t="n">
         <v>517</v>
@@ -3674,7 +3730,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B54" s="2" t="n">
         <v>518</v>
@@ -3682,7 +3738,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B55" s="2" t="n">
         <v>518</v>
@@ -3690,7 +3746,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B56" s="2" t="n">
         <v>735</v>
@@ -3698,7 +3754,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B57" s="2" t="n">
         <v>707</v>
@@ -3706,7 +3762,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B58" s="2" t="n">
         <v>733</v>
@@ -3714,7 +3770,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B59" s="2" t="n">
         <v>517</v>
@@ -3722,7 +3778,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B60" s="2" t="n">
         <v>3080</v>
@@ -3730,7 +3786,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B61" s="2" t="n">
         <v>3100</v>
@@ -3738,7 +3794,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B62" s="2" t="n">
         <v>1065</v>
@@ -3746,7 +3802,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B63" s="2" t="n">
         <v>1150</v>
@@ -3754,7 +3810,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B64" s="2" t="n">
         <v>2700</v>
@@ -3762,7 +3818,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B65" s="2" t="n">
         <v>1450</v>
@@ -3770,7 +3826,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B66" s="2" t="n">
         <v>1470</v>
@@ -3778,7 +3834,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B67" s="2" t="n">
         <v>1145</v>
@@ -3786,7 +3842,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B68" s="2" t="n">
         <v>1855</v>
@@ -3794,7 +3850,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B69" s="2" t="n">
         <v>1855</v>
@@ -3802,7 +3858,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B70" s="2" t="n">
         <v>1690</v>
@@ -3810,7 +3866,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B71" s="2" t="n">
         <v>1690</v>
@@ -3818,7 +3874,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B72" s="2" t="n">
         <v>1550</v>
@@ -3826,7 +3882,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B73" s="2" t="n">
         <v>1550</v>
@@ -3834,7 +3890,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B74" s="2" t="n">
         <v>3080</v>
@@ -3842,13 +3898,16 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B75" s="2" t="n">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
@@ -3872,18 +3931,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>1080</v>
@@ -3891,7 +3950,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>390</v>
@@ -3899,7 +3958,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>388</v>
@@ -3907,7 +3966,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>1200</v>
@@ -3915,7 +3974,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>1410</v>
@@ -3923,7 +3982,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>1500</v>
@@ -3931,7 +3990,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>918</v>
@@ -3939,7 +3998,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>930</v>
@@ -3947,7 +4006,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>600</v>
@@ -3955,7 +4014,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>605</v>
@@ -3963,7 +4022,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>603</v>
@@ -3971,7 +4030,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>990</v>
@@ -3979,7 +4038,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>900</v>
@@ -3987,7 +4046,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>675</v>
@@ -3995,7 +4054,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>645</v>
@@ -4003,7 +4062,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>598</v>
@@ -4011,7 +4070,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>688</v>
@@ -4019,7 +4078,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>785</v>
@@ -4027,7 +4086,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>780</v>
@@ -4035,7 +4094,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>640</v>
@@ -4043,7 +4102,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>775</v>
@@ -4051,7 +4110,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>840</v>
@@ -4059,7 +4118,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>845</v>
@@ -4067,7 +4126,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>650</v>
@@ -4075,7 +4134,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>1540</v>
@@ -4083,7 +4142,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>1540</v>
@@ -4091,7 +4150,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>1830</v>
@@ -4099,7 +4158,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>1920</v>
@@ -4107,7 +4166,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>1410</v>
@@ -4115,7 +4174,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>1430</v>
@@ -4123,7 +4182,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>770</v>
@@ -4131,7 +4190,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>840</v>
@@ -4139,7 +4198,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B34" s="2" t="n">
         <v>650</v>
@@ -4147,7 +4206,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>660</v>
@@ -4155,7 +4214,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>770</v>
@@ -4163,7 +4222,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>688</v>
@@ -4171,7 +4230,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>653</v>
@@ -4179,7 +4238,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>653</v>
@@ -4187,7 +4246,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>1430</v>
@@ -4195,7 +4254,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>925</v>
@@ -4203,7 +4262,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>860</v>
@@ -4211,7 +4270,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>860</v>
@@ -4219,7 +4278,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>398</v>
@@ -4227,7 +4286,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>220</v>
@@ -4235,13 +4294,16 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B46" s="2" t="n">
         <v>50</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
